--- a/dataconverter/data/template.xlsx
+++ b/dataconverter/data/template.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Subject</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>noTimer</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:M5"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -450,6 +453,9 @@
       </c>
       <c r="M1" t="s">
         <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/dataconverter/data/template.xlsx
+++ b/dataconverter/data/template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Subject</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>noTimer</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -409,7 +406,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -453,9 +450,6 @@
       </c>
       <c r="M1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/dataconverter/data/template.xlsx
+++ b/dataconverter/data/template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Subject</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>noTimer</t>
+  </si>
+  <si>
+    <t>Time in the format 2,15 which means 2 minutes and 15 seconds. This is the only acceptable format</t>
+  </si>
+  <si>
+    <t>Enter time below:</t>
   </si>
 </sst>
 </file>
@@ -403,15 +409,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="89.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +461,14 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -469,7 +485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -486,7 +502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -503,7 +519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -520,23 +536,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="D12" s="1"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="4:15">

--- a/dataconverter/data/template.xlsx
+++ b/dataconverter/data/template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Subject</t>
   </si>
@@ -55,15 +55,6 @@
   </si>
   <si>
     <t>Distance</t>
-  </si>
-  <si>
-    <t>Hoverflies and bees....youtube</t>
-  </si>
-  <si>
-    <t>JD</t>
-  </si>
-  <si>
-    <t>noTimer</t>
   </si>
   <si>
     <t>Time in the format 2,15 which means 2 minutes and 15 seconds. This is the only acceptable format</t>
@@ -412,7 +403,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="E5" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -462,79 +453,23 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1">
-        <v>41923</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1">
-        <v>41923</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1">
-        <v>41923</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1">
-        <v>41923</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="9" spans="1:16">
       <c r="D9" s="1"/>
